--- a/Area move.xlsx
+++ b/Area move.xlsx
@@ -7,12 +7,59 @@
     <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DameValue" sheetId="2" r:id="rId1"/>
+    <sheet name="AreaMove" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>mech</t>
+  </si>
+  <si>
+    <t>ifantry</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>5 cell</t>
+  </si>
+  <si>
+    <t>2 cell</t>
+  </si>
+  <si>
+    <t>matrix: dame value</t>
+  </si>
+  <si>
+    <t>attacker</t>
+  </si>
+  <si>
+    <t>def value</t>
+  </si>
+  <si>
+    <t>moutain</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>roach</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,16 +123,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="135" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,16 +461,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -503,7 +722,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -879,18 +1100,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
